--- a/medicine/Mort/Lacet_étrangleur/Lacet_étrangleur.xlsx
+++ b/medicine/Mort/Lacet_étrangleur/Lacet_étrangleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lacet_%C3%A9trangleur</t>
+          <t>Lacet_étrangleur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lacet étrangleur, aussi appelé garrot, ou garrotte, est une arme utilisée depuis l’Antiquité pour tuer par strangulation un adversaire, et jusqu'en 1974 en Espagne pour exécuter un condamné à mort.
 Il est généralement constitué de cuir, de corde à piano ou de soie (Turquie ancienne). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lacet_%C3%A9trangleur</t>
+          <t>Lacet_étrangleur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">À travers l'histoire
-L'usage de la garrotte est relaté très tôt dans l’Histoire. Par exemple :
+          <t>À travers l'histoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'usage de la garrotte est relaté très tôt dans l’Histoire. Par exemple :
 les principaux conspirateurs de la conjuration de Catilina furent étranglés, après condamnation par le Sénat romain en 63 av. J.-C. ;
 Vercingétorix fut exécuté à l’aide d’un lacet étrangleur en août 46 av. J.-C. dans les geôles de Rome (Tullianum) puis jeté aux égouts.
 Les Laquearius étaient des gladiateurs armés d'un lacet. 
 En Turquie, un lacet de soie était utilisé pour étrangler les personnages éminents dont le sultan voulait se défaire : « Le sultan lui envoya le cordon. »
 En Inde, la secte des Thug utilisait le lacet étrangleur comme arme d'assassinat rituel.
-Peine de mort
-De nombreux pays ont choisi le garrot à collier et vis comme moyen d’exécution des condamnés à mort. L’Espagne, par exemple, l'a officiellement utilisé entre 1820 et 1978 (mais jusqu'en 1995 dans le droit appliqué aux militaires). Les dernières personnes, civiles ou militaires, exécutées en Espagne de cette manière furent Salvador Puig i Antich et Heinz Chez, en 1974.
 </t>
         </is>
       </c>
@@ -534,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lacet_%C3%A9trangleur</t>
+          <t>Lacet_étrangleur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,16 +564,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aspects techniques</t>
+          <t>Usage</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le mécanisme du garrot, dans sa forme la plus évoluée, consistait en un collier de fer percé d'une vis se terminant par une sphère qui, lorsqu'elle était tournée, était censée briser la nuque du condamné. La mort du détenu était alors produite par la dislocation de l'apophyse odontoïde et de la première vertèbre cervicale.
-Si la lésion produite écrase la moelle ou casse la moelle épinière cervicale, un coma cérébral se produit et la mort est instantanée. Mais cela dépend en grande partie de la force physique du bourreau et de la résistance du cou du condamné, et l'expérience a montré qu'il en était rarement ainsi ; la mort est généralement due à une strangulation résultant d'une série de lésions laryngées et hyoïdiennes. Plusieurs cas se sont produits dans lesquels l'agonie du condamné a duré. À titre d'exemple, le rapport médical de l'exécution du tueur José María Jarabo en 1959 faisait observer que la mort ne s'était pas produite instantanément, mais avec une « lenteur excessive » ; la mort s'est produite au bout de vingt-cinq minutes, après une véritable torture. Jarabo avait un cou puissant et le bourreau, Antonio López Sierra, était physiquement faible.
-Cordes à piano
-La corde à piano est le nom d'une arme, utilisant la corde à piano comme lacet étrangleur.
-Les cordes sont en acier extrêmement solide et sont de diamètre variable : d'environ 0,8 mm pour les notes les plus aiguës jusqu'à 1,5 mm pour les notes les plus graves. Les cordes graves sont dites filées dans la mesure où elles sont gainées d'un fil de cuivre destiné à les alourdir pour permettre une tension moindre et une plus grande flexibilité. Sa finesse et sa résistance en font une arme de choix pour la strangulation. Parfois, des poignées sont ajoutées pour exercer une pression plus forte durant la strangulation en améliorant la prise en main et le confort.
+          <t>Peine de mort</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux pays ont choisi le garrot à collier et vis comme moyen d’exécution des condamnés à mort. L’Espagne, par exemple, l'a officiellement utilisé entre 1820 et 1978 (mais jusqu'en 1995 dans le droit appliqué aux militaires). Les dernières personnes, civiles ou militaires, exécutées en Espagne de cette manière furent Salvador Puig i Antich et Heinz Chez, en 1974.
 </t>
         </is>
       </c>
@@ -569,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lacet_%C3%A9trangleur</t>
+          <t>Lacet_étrangleur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +601,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Aspects techniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mécanisme du garrot, dans sa forme la plus évoluée, consistait en un collier de fer percé d'une vis se terminant par une sphère qui, lorsqu'elle était tournée, était censée briser la nuque du condamné. La mort du détenu était alors produite par la dislocation de l'apophyse odontoïde et de la première vertèbre cervicale.
+Si la lésion produite écrase la moelle ou casse la moelle épinière cervicale, un coma cérébral se produit et la mort est instantanée. Mais cela dépend en grande partie de la force physique du bourreau et de la résistance du cou du condamné, et l'expérience a montré qu'il en était rarement ainsi ; la mort est généralement due à une strangulation résultant d'une série de lésions laryngées et hyoïdiennes. Plusieurs cas se sont produits dans lesquels l'agonie du condamné a duré. À titre d'exemple, le rapport médical de l'exécution du tueur José María Jarabo en 1959 faisait observer que la mort ne s'était pas produite instantanément, mais avec une « lenteur excessive » ; la mort s'est produite au bout de vingt-cinq minutes, après une véritable torture. Jarabo avait un cou puissant et le bourreau, Antonio López Sierra, était physiquement faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lacet_étrangleur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lacet_%C3%A9trangleur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aspects techniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cordes à piano</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La corde à piano est le nom d'une arme, utilisant la corde à piano comme lacet étrangleur.
+Les cordes sont en acier extrêmement solide et sont de diamètre variable : d'environ 0,8 mm pour les notes les plus aiguës jusqu'à 1,5 mm pour les notes les plus graves. Les cordes graves sont dites filées dans la mesure où elles sont gainées d'un fil de cuivre destiné à les alourdir pour permettre une tension moindre et une plus grande flexibilité. Sa finesse et sa résistance en font une arme de choix pour la strangulation. Parfois, des poignées sont ajoutées pour exercer une pression plus forte durant la strangulation en améliorant la prise en main et le confort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lacet_étrangleur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lacet_%C3%A9trangleur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cycle des Princes d'Ambre de Roger Zelazny, il y a un lacet étrangleur nommé Frakir appartenant à Merlin. Il le porte autour du poignet et le lacet lui serre le bras quand un danger approche. Frakir peut bien entendu aussi se serrer autour du cou des ennemis de Merlin s’il en a besoin.
 On trouve aussi un lacet étrangleur appartenant à Rild, tueur que la déesse Kâli a envoyé sur terre pour tuer le Bouddha, dans le roman Seigneur de lumière, du même auteur.
